--- a/GSD/GSD_box_plots/results/percentile_difference_summary.xlsx
+++ b/GSD/GSD_box_plots/results/percentile_difference_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\GSD_box_plots\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2CC31-EE06-484F-BD3F-7FDC0A55AA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71675C-BBA6-423E-88F1-7EC201EC587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2654242-1630-4848-886A-878F895EB92C}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{B2654242-1630-4848-886A-878F895EB92C}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sizes" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -202,7 +202,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -210,14 +210,14 @@
               <a:t>Water</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Column - Concentration Percentile Trends</a:t>
+              <a:t> Column - Concentration Percentile Trends - Original Sizes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -238,7 +238,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1069,7 +1069,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Sediment Trap - Percentile Differences (SM-SP)</a:t>
+              <a:t>Sediment Trap - Percentile Differences (SM-SP) - New Sizes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1079,6 +1079,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11469811558679369"/>
+          <c:y val="2.6315789473684209E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1187,13 +1195,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.3931750000000109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.6852499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14704999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,13 +1275,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-4.4918499999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.2098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.19890000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,13 +1355,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-6.7309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.4710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.25795000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,13 +1768,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-52.307886712647601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-40.319257649769149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-30.867145573277345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,13 +1848,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-40.745929842342122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-33.203159886721863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-30.119172750000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,13 +1928,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-58.425597247631686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-26.273430274874684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-31.455074250000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,13 +2332,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-127.97289407777666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-30.142852112676064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-38.993537190082648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,13 +2412,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-145.28754683376837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-30.86313186813187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-39.123554794520551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,13 +2492,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-160.80781625961859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-34.679138817480712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-41.231011729790843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,7 +2763,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2765,7 +2773,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2773,14 +2781,14 @@
               <a:t>Sediment Traps </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>- Weight Percentile Trends</a:t>
+              <a:t>- Weight Percentile Trends - Original Sizes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2801,7 +2809,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3640,7 +3648,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Column - Percentile Differences (SM-SP)</a:t>
+              <a:t> Column - Percentile Differences (SM-SP) - Original Sizes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -3736,16 +3744,19 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Fine Sand</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Silt</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -3753,17 +3764,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original Sizes'!$H$14:$H$16</c:f>
+              <c:f>'Original Sizes'!$H$13:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.95688195599999104</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.9022290682499996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.4180664942500005</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.35144205875000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3816,16 +3830,19 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Fine Sand</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Silt</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -3833,17 +3850,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original Sizes'!$I$14:$I$16</c:f>
+              <c:f>'Original Sizes'!$I$13:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.2413300810000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.052429995499901</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.1313345855000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.44911781099999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -3896,16 +3916,19 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Fine Sand</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Silt</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -3913,17 +3936,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Original Sizes'!$J$14:$J$16</c:f>
+              <c:f>'Original Sizes'!$J$13:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.8549177192499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16.625548595000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12.154502976749999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.95534258949999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -4205,7 +4231,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Sediment Trap - Percentile Differences (SM-SP)</a:t>
+              <a:t>Sediment Trap - Percentile Differences (SM-SP) - Original Sizes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -5904,7 +5930,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -5914,7 +5940,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -5922,14 +5948,14 @@
               <a:t>Water</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Column - Concentration Percentile Trends</a:t>
+              <a:t> Column - Concentration Percentile Trends - New Sizes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5950,7 +5976,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6035,6 +6061,15 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>3.2460896942500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3720968172500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8925017750000003E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6101,6 +6136,15 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.1774824810000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9881757034999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.122076691</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6167,6 +6211,15 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>9.6481058797500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3097380212500003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1923304455</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6237,6 +6290,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.605113974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1097737370000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18973258500000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6303,6 +6365,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>10.16890712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.227002969999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6369,6 +6440,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>13.42753664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.922344840000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6717,7 +6797,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>- Weight Percentile Trends</a:t>
+              <a:t>- Weight Percentile Trends - New Sizes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -6825,6 +6905,18 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.760350000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2619000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3972500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4950000000000007E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6891,6 +6983,18 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.811199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7951999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12959999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6957,6 +7061,18 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.545749999999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18429999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7027,6 +7143,18 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.01125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8687249999999898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0824999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7093,6 +7221,18 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.71265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3711500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7159,6 +7299,18 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6005750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44224999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7507,7 +7659,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Column - Percentile Differences (SM-SP)</a:t>
+              <a:t> Column - Percentile Differences (SM-SP) - New Sizes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -7625,13 +7777,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3590242797499998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.7376769197500002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.13080756725000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7705,13 +7857,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.9914246389999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.2388272664999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.27792330900000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,13 +7937,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.7794307602499995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.6126068187500007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.40766955449999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14989,12 +15141,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CS</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>            FS               S                C</a:t>
+            <a:t> FS                     S                     C</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -15389,12 +15537,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CS</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>            FS               S                C</a:t>
+            <a:t>  FS                     S                    C</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -15442,14 +15586,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>565589</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>52552</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>44669</xdr:rowOff>
+      <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>2299</xdr:colOff>
+      <xdr:colOff>291334</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>130394</xdr:rowOff>
     </xdr:to>
@@ -15466,8 +15610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14767364" y="2711669"/>
-          <a:ext cx="1875110" cy="276225"/>
+          <a:off x="14885276" y="2752397"/>
+          <a:ext cx="2071524" cy="235497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15498,12 +15642,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CS</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>            FS               S                C</a:t>
+            <a:t>FS                   S                      C</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -16043,8 +16183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2800FBFC-ED83-41EB-8E42-FB801C25BE72}">
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16607,8 +16747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646353ED-E387-4441-9F2D-6062223C8CA0}">
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16702,140 +16842,188 @@
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="5">
+        <v>13.760350000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17.811199999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>28.545749999999899</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.01125</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.71265</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.6005750000000001</v>
+      </c>
       <c r="H5" s="1">
         <f>E5-B5</f>
-        <v>0</v>
+        <v>-12.7491</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:J8" si="0">F5-C5</f>
-        <v>0</v>
+        <v>-16.098549999999999</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="e">
+        <v>-24.9451749999999</v>
+      </c>
+      <c r="K5" s="2">
         <f>E5-B5/E5*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="2" t="e">
+        <v>-1359.7155732385661</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" ref="L5:M8" si="1">F5-C5/F5*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="2" t="e">
+        <v>-1038.2663299433625</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-789.21029548596118</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="5">
+        <v>9.2619000000000007</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12.863</v>
+      </c>
+      <c r="D6" s="5">
+        <v>16.2958</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.8687249999999898</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8.3711500000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9.5648</v>
+      </c>
       <c r="H6" s="1">
         <f t="shared" ref="H6:H8" si="2">E6-B6</f>
-        <v>0</v>
+        <v>-2.3931750000000109</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.4918499999999995</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="e">
+        <v>-6.7309999999999999</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K8" si="3">E6-B6/E6*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="2" t="e">
+        <v>-127.97289407777666</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="2" t="e">
+        <v>-145.28754683376837</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-160.80781625961859</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="5">
+        <v>1.3972500000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.7951999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.0824999999999996</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5.835</v>
+      </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.6852499999999995</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2098</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="e">
+        <v>3.4710000000000001</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="2" t="e">
+        <v>-30.142852112676064</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="2" t="e">
+        <v>-30.86313186813187</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-34.679138817480712</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="5">
+        <v>9.4950000000000007E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.44224999999999998</v>
+      </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14704999999999999</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19890000000000002</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="e">
+        <v>0.25795000000000001</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
+        <v>-38.993537190082648</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>-39.123554794520551</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-41.231011729790843</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -16952,105 +17140,141 @@
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="5">
+        <v>3.2460896942500002</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.1774824810000002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.6481058797500001</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5.605113974</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10.16890712</v>
+      </c>
+      <c r="G14" s="6">
+        <v>13.42753664</v>
+      </c>
       <c r="H14" s="1">
         <f>E14-B14</f>
-        <v>0</v>
+        <v>2.3590242797499998</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9914246389999999</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="e">
+        <v>3.7794307602499995</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" ref="K14:K16" si="6">E14-B14/E14*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="2" t="e">
+        <v>-52.307886712647601</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="2" t="e">
+        <v>-40.745929842342122</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-58.425597247631686</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5">
+        <v>3.3720968172500001</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4.9881757034999996</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7.3097380212500003</v>
+      </c>
+      <c r="E15" s="6">
+        <v>7.1097737370000003</v>
+      </c>
+      <c r="F15" s="6">
+        <v>11.227002969999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>16.922344840000001</v>
+      </c>
       <c r="H15" s="1">
         <f>E15-B15</f>
-        <v>0</v>
+        <v>3.7376769197500002</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.2388272664999995</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="e">
+        <v>9.6126068187500007</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2" t="e">
+        <v>-40.319257649769149</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="2" t="e">
+        <v>-33.203159886721863</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-26.273430274874684</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="5">
+        <v>5.8925017750000003E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.122076691</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.1923304455</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.18973258500000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.6</v>
+      </c>
       <c r="H16" s="1">
         <f>E16-B16</f>
-        <v>0</v>
+        <v>0.13080756725000001</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27792330900000001</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="e">
+        <v>0.40766955449999998</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2" t="e">
+        <v>-30.867145573277345</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="2" t="e">
+        <v>-30.119172750000004</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>-31.455074250000003</v>
       </c>
     </row>
   </sheetData>

--- a/GSD/GSD_box_plots/results/percentile_difference_summary.xlsx
+++ b/GSD/GSD_box_plots/results/percentile_difference_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\GSD_box_plots\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71675C-BBA6-423E-88F1-7EC201EC587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A5341F-9F6D-4528-8090-82836D465955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{B2654242-1630-4848-886A-878F895EB92C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2654242-1630-4848-886A-878F895EB92C}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sizes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Size Class</t>
   </si>
@@ -71,13 +71,31 @@
   <si>
     <t>SM-SP Percent Differences (%)</t>
   </si>
+  <si>
+    <t>Spring - 25th Percentile</t>
+  </si>
+  <si>
+    <t>Spring - 50th Percentile</t>
+  </si>
+  <si>
+    <t>Spring - 75th Percentile</t>
+  </si>
+  <si>
+    <t>Summer - 25th Percentile</t>
+  </si>
+  <si>
+    <t>Summer - 50th Percentile</t>
+  </si>
+  <si>
+    <t>Summer - 75th Percentile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,7 +151,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -142,13 +160,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,6 +178,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008080"/>
+      <color rgb="FF708090"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1054,6 +1078,2309 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Water</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Column - Concentration Percentile Trends - New Sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15253326797185371"/>
+          <c:y val="0.25335090793115511"/>
+          <c:w val="0.79788310507879123"/>
+          <c:h val="0.64210097644401953"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>3.2460896942500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3720968172500001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8925017750000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Spring - 25th Percentile</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C503-4968-9174-DFFE1E142A24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.1774824810000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9881757034999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.122076691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Spring - 50th Percentile</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C503-4968-9174-DFFE1E142A24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$D$13:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>9.6481058797500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3097380212500003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1923304455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Spring - 75th Percentile</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C503-4968-9174-DFFE1E142A24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="97000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.605113974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1097737370000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18973258500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Summer - 25th Percentile</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C503-4968-9174-DFFE1E142A24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$F$13:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>10.16890712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.227002969999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Summer - 50th Percentile</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C503-4968-9174-DFFE1E142A24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$G$13:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>13.42753664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.922344840000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Summer - 75th Percentile</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C503-4968-9174-DFFE1E142A24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790066239"/>
+        <c:axId val="1790066719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790066239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CS	FS	S	C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30071278446516025"/>
+              <c:y val="0.9026574518298297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1790066719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790066719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Concentration (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790066239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sediment Traps </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- Weight Percentile Trends - New Sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15253326797185371"/>
+          <c:y val="0.25335090793115511"/>
+          <c:w val="0.79788310507879123"/>
+          <c:h val="0.64210097644401953"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Spring - 25th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.760350000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2619000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3972500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4950000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31DA-4490-9E05-B76FC2189B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spring - 50th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.811199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7951999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12959999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31DA-4490-9E05-B76FC2189B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Spring - 75th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.545749999999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18429999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31DA-4490-9E05-B76FC2189B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Summer - 25th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="97000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.01125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8687249999999898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0824999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-31DA-4490-9E05-B76FC2189B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Summer - 50th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.71265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3711500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-31DA-4490-9E05-B76FC2189B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Summer - 75th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6005750000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44224999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-31DA-4490-9E05-B76FC2189B1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790066239"/>
+        <c:axId val="1790066719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790066239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CS	FS	S	C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30326706288150762"/>
+              <c:y val="0.89593193779799785"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1790066719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790066719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790066239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Water</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Column - Percentile Differences (SM-SP) - New Sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23948990071893186"/>
+          <c:y val="0.25335090793115511"/>
+          <c:w val="0.71092662330252199"/>
+          <c:h val="0.64210097644401953"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'New Sizes'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="97000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$H$14:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3590242797499998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7376769197500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13080756725000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D053-4CD8-8672-A7A1882FB82B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'New Sizes'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$I$14:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9914246389999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2388272664999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27792330900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D053-4CD8-8672-A7A1882FB82B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'New Sizes'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$J$14:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7794307602499995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6126068187500007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40766955449999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D053-4CD8-8672-A7A1882FB82B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790066239"/>
+        <c:axId val="1790066719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790066239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1790066719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790066719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Concentration (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790066239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -1606,7 +3933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2178,7 +4505,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2672,6 +4999,867 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Water</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Column - Concentration Percentile Trends - New Sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16792673114931875"/>
+          <c:y val="1.9025162650160216E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15253326797185371"/>
+          <c:y val="0.25335090793115511"/>
+          <c:w val="0.79788310507879123"/>
+          <c:h val="0.64210097644401953"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Spring - 25th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.2460896942500002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3720968172500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8925017750000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C3C-4326-B3EA-5C6DC9EE3568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spring - 50th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$C$14:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1774824810000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9881757034999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.122076691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C3C-4326-B3EA-5C6DC9EE3568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Spring - 75th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$D$14:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.6481058797500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3097380212500003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1923304455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C3C-4326-B3EA-5C6DC9EE3568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Summer - 25th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="708090">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="97000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$E$14:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.605113974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1097737370000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18973258500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C3C-4326-B3EA-5C6DC9EE3568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Summer - 5oth Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$F$14:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.16890712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.227002969999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C3C-4326-B3EA-5C6DC9EE3568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Summer - 75th Percentile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'New Sizes'!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.42753664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.922344840000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C3C-4326-B3EA-5C6DC9EE3568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790066239"/>
+        <c:axId val="1790066719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790066239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fine Sand 	</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>             </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Silt	                  Clay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.21152234667509023"/>
+              <c:y val="0.90265738078937952"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="1790066719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790066719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Concentration (mg/L)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790066239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0406989956447475E-2"/>
+          <c:y val="0.11148745312993885"/>
+          <c:w val="0.88922792911500015"/>
+          <c:h val="0.12271319792011529"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5930,7 +9118,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -5940,7 +9128,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -5948,14 +9136,14 @@
               <a:t>Water</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:rPr lang="en-US" sz="1600" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Column - Concentration Percentile Trends - New Sizes</a:t>
+              <a:t> Column  Percentile Trends </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200">
+            <a:endParaRPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5963,6 +9151,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21434317568447236"/>
+          <c:y val="2.6902056127327219E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5976,7 +9172,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6009,12 +9205,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Spring - 25th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring - 25th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6025,7 +9229,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -6037,19 +9241,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -6057,17 +9258,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$B$13:$B$16</c:f>
+              <c:f>'Original Sizes'!$B$14:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0840844142500003</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2460896942500002</c:v>
+                  <c:v>1.1052265002499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3720968172500001</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>5.8925017750000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -6076,170 +9277,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C503-4968-9174-DFFE1E142A24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Spring - 50th Percentile</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'New Sizes'!$A$13:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Clay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'New Sizes'!$C$13:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>5.1774824810000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9881757034999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.122076691</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C503-4968-9174-DFFE1E142A24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Spring - 75th Percentile</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'New Sizes'!$A$13:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Clay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'New Sizes'!$D$13:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>9.6481058797500001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3097380212500003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1923304455</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C503-4968-9174-DFFE1E142A24}"/>
+              <c16:uniqueId val="{00000000-69BA-48BC-BF3B-79E7745F929E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Summer - 25th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer - 25th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="708090"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6250,9 +9309,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:srgbClr val="708090">
                   <a:alpha val="98000"/>
-                </a:schemeClr>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -6266,19 +9325,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -6286,18 +9342,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$E$13:$E$16</c:f>
+              <c:f>'Original Sizes'!$E$14:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14.9863134825</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.605113974</c:v>
+                  <c:v>5.5232929945000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1097737370000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18973258500000001</c:v>
+                  <c:v>0.41036707649999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6305,20 +9361,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C503-4968-9174-DFFE1E142A24}"/>
+              <c16:uniqueId val="{00000003-69BA-48BC-BF3B-79E7745F929E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Summer - 50th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring - 50th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6329,7 +9393,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -6341,19 +9405,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -6361,18 +9422,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$F$13:$F$16</c:f>
+              <c:f>'Original Sizes'!$C$14:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6151095494999996</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.16890712</c:v>
+                  <c:v>1.8671228545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.227002969999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.122076691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6380,31 +9441,39 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C503-4968-9174-DFFE1E142A24}"/>
+              <c16:uniqueId val="{00000001-69BA-48BC-BF3B-79E7745F929E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>Summer - 75th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer - 50th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="708090"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="708090"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -6416,19 +9485,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$13:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -6436,18 +9502,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$G$13:$G$16</c:f>
+              <c:f>'Original Sizes'!$F$14:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.667539544999901</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.42753664</c:v>
+                  <c:v>7.9984574400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.922344840000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57119450199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6455,7 +9521,167 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C503-4968-9174-DFFE1E142A24}"/>
+              <c16:uniqueId val="{00000004-69BA-48BC-BF3B-79E7745F929E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring - 75th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Original Sizes'!$D$14:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.991443697499999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.80149264825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1923304455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69BA-48BC-BF3B-79E7745F929E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer - 75th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Original Sizes'!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.616992292500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.955995625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.147673035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-69BA-48BC-BF3B-79E7745F929E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6474,6 +9700,7 @@
         <c:axId val="1790066239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
@@ -6508,12 +9735,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>CS	FS	S	C</a:t>
+                  <a:t>Fine Sand	                Silt	                        Clay</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6522,8 +9749,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.30071278446516025"/>
-              <c:y val="0.9026574518298297"/>
+              <c:x val="0.20295934686150804"/>
+              <c:y val="0.89256918078208192"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6553,7 +9780,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1790066719"/>
@@ -6599,7 +9826,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6609,6 +9836,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3611588088544204E-2"/>
+              <c:y val="0.38255597600315411"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6635,8 +9870,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6681,34 +9916,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6774,7 +9981,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -6784,22 +9991,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Sediment Traps </a:t>
+              <a:t>Sediment Trap </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1600" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>- Weight Percentile Trends - New Sizes</a:t>
+              <a:t>Percentile Trends </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6807,6 +10014,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21434317568447236"/>
+          <c:y val="2.6902056127327219E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6820,7 +10035,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -6853,12 +10068,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Spring - 25th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring - 25th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6869,7 +10092,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -6881,19 +10104,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -6901,21 +10121,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$B$5:$B$8</c:f>
+              <c:f>'Original Sizes'!$B$6:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13.760350000000001</c:v>
+                  <c:v>1.543625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2619000000000007</c:v>
+                  <c:v>0.52649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3972500000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4950000000000007E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,176 +10140,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31DA-4490-9E05-B76FC2189B1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Spring - 50th Percentile</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'New Sizes'!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Clay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'New Sizes'!$C$5:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>17.811199999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.863</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7951999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12959999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-31DA-4490-9E05-B76FC2189B1B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Spring - 75th Percentile</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'New Sizes'!$A$5:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Clay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'New Sizes'!$D$5:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>28.545749999999899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.2958</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18429999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-31DA-4490-9E05-B76FC2189B1B}"/>
+              <c16:uniqueId val="{00000000-EC0E-44D2-B80A-C561754E3C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Summer - 25th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer - 25th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="708090"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7103,9 +10172,9 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:srgbClr val="708090">
                   <a:alpha val="98000"/>
-                </a:schemeClr>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -7119,19 +10188,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -7139,20 +10205,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$E$5:$E$8</c:f>
+              <c:f>'Original Sizes'!$E$6:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.01125</c:v>
+                  <c:v>5.1234000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8687249999999898</c:v>
+                  <c:v>1.65099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0824999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.24199999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -7161,20 +10224,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-31DA-4490-9E05-B76FC2189B1B}"/>
+              <c16:uniqueId val="{00000001-EC0E-44D2-B80A-C561754E3C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Summer - 50th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring - 50th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7185,7 +10256,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="008080"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -7197,19 +10268,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -7217,21 +10285,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$F$5:$F$8</c:f>
+              <c:f>'Original Sizes'!$C$6:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.71265</c:v>
+                  <c:v>2.0416124999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3711500000000001</c:v>
+                  <c:v>0.76649999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32850000000000001</c:v>
+                  <c:v>0.12605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,31 +10304,39 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-31DA-4490-9E05-B76FC2189B1B}"/>
+              <c16:uniqueId val="{00000002-EC0E-44D2-B80A-C561754E3C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>Summer - 75th Percentile</c:v>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer - 50th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="708090"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="708090"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -7275,19 +10348,16 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$5:$A$8</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Coarse Sand</c:v>
+                  <c:v>Fine Sand</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fine Sand</c:v>
+                  <c:v>Silt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Silt</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Clay</c:v>
                 </c:pt>
               </c:strCache>
@@ -7295,21 +10365,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$G$5:$G$8</c:f>
+              <c:f>'Original Sizes'!$F$6:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.6005750000000001</c:v>
+                  <c:v>5.7890499999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5648</c:v>
+                  <c:v>1.8205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.835</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44224999999999998</c:v>
+                  <c:v>0.28949999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7317,7 +10384,167 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-31DA-4490-9E05-B76FC2189B1B}"/>
+              <c16:uniqueId val="{00000003-EC0E-44D2-B80A-C561754E3C5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring - 75th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Original Sizes'!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3186499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EC0E-44D2-B80A-C561754E3C5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer - 75th Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="708090"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Silt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Original Sizes'!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.6624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5547499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EC0E-44D2-B80A-C561754E3C5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7336,6 +10563,7 @@
         <c:axId val="1790066239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
@@ -7370,12 +10598,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>CS	FS	S	C</a:t>
+                  <a:t>Fine Sand	                Silt	                        Clay</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7384,8 +10612,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.30326706288150762"/>
-              <c:y val="0.89593193779799785"/>
+              <c:x val="0.20295934686150804"/>
+              <c:y val="0.89256918078208192"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7415,7 +10643,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1790066719"/>
@@ -7461,16 +10689,37 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Weight (g)</a:t>
+                  <a:t>Sediment</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Weight (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0818631090405599E-2"/>
+              <c:y val="0.38255597600315411"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7497,8 +10746,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -7543,34 +10792,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7629,82 +10850,16 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Water</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Column - Percentile Differences (SM-SP) - New Sizes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23948990071893186"/>
+          <c:x val="0.15253326797185371"/>
           <c:y val="0.25335090793115511"/>
-          <c:w val="0.71092662330252199"/>
+          <c:w val="0.79788310507879123"/>
           <c:h val="0.64210097644401953"/>
         </c:manualLayout>
       </c:layout>
@@ -7715,15 +10870,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'New Sizes'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>25th Percentile</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -7739,7 +10886,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="bg1">
                   <a:alpha val="98000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -7755,7 +10902,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7772,18 +10919,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$H$14:$H$16</c:f>
+              <c:f>'Original Sizes'!$E$14:$E$16</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.3590242797499998</c:v>
+                  <c:v>14.9863134825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7376769197500002</c:v>
+                  <c:v>5.5232929945000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13080756725000001</c:v>
+                  <c:v>0.41036707649999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7791,7 +10938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D053-4CD8-8672-A7A1882FB82B}"/>
+              <c16:uniqueId val="{00000001-B107-486E-AE01-F7F8EE6245AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7799,15 +10946,7 @@
           <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'New Sizes'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>50th Percentile</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -7823,7 +10962,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -7835,7 +10974,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7852,18 +10991,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$I$14:$I$16</c:f>
+              <c:f>'Original Sizes'!$F$14:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9914246389999999</c:v>
+                  <c:v>19.667539544999901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2388272664999995</c:v>
+                  <c:v>7.9984574400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27792330900000001</c:v>
+                  <c:v>0.57119450199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7871,7 +11010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D053-4CD8-8672-A7A1882FB82B}"/>
+              <c16:uniqueId val="{00000003-B107-486E-AE01-F7F8EE6245AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7879,15 +11018,7 @@
           <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'New Sizes'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>75th Percentile</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -7903,7 +11034,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -7915,7 +11046,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'New Sizes'!$A$14:$A$16</c:f>
+              <c:f>'Original Sizes'!$A$14:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7932,18 +11063,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'New Sizes'!$J$14:$J$16</c:f>
+              <c:f>'Original Sizes'!$G$14:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7794307602499995</c:v>
+                  <c:v>30.616992292500001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6126068187500007</c:v>
+                  <c:v>14.955995625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40766955449999998</c:v>
+                  <c:v>1.147673035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7951,7 +11082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D053-4CD8-8672-A7A1882FB82B}"/>
+              <c16:uniqueId val="{00000005-B107-486E-AE01-F7F8EE6245AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7970,6 +11101,7 @@
         <c:axId val="1790066239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
@@ -7987,8 +11119,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fine Sand	                Silt	                        Clay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20295934686150804"/>
+              <c:y val="0.89256918078208192"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1790066719"/>
@@ -8034,7 +11227,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1400">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -8044,6 +11237,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3611588088544204E-2"/>
+              <c:y val="0.38255597600315411"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8070,8 +11271,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -8118,6 +11319,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1367051288366872"/>
+          <c:y val="9.4157196445645269E-2"/>
+          <c:w val="0.78796566453428918"/>
+          <c:h val="5.6746921819606361E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8133,7 +11344,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -8309,6 +11520,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10732,6 +14103,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15358,6 +20793,120 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5906C52E-87DA-423A-B0E6-D0451FF9A8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>207066</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFB0290-88C8-4919-AF17-2553A5291744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281608</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>182011</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EDC032-E59F-43A9-A20B-9A12C87826D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15859,6 +21408,88 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107468</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDEBF42-0678-4352-BA51-074690C38F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497644</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>160997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="A comparison of different types of water and water traps&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860BAF5B-4228-D8CB-94D2-17A2323610AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699846" y="11342077"/>
+          <a:ext cx="5128260" cy="2534920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16181,10 +21812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2800FBFC-ED83-41EB-8E42-FB801C25BE72}">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16211,89 +21842,89 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>75</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>25</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>50</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>75</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>25</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>50</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>75</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>25</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>50</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>22.446449999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>26.969200000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>32.291575000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>5.6848000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>6.0479500000000002</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>8.3008500000000005</v>
       </c>
       <c r="H5" s="1">
@@ -16322,25 +21953,25 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.543625</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.0416124999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2.3186499999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>5.1234000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>5.7890499999999996</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>6.6624999999999996</v>
       </c>
       <c r="H6" s="1">
@@ -16369,25 +22000,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.52649999999999997</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.76649999999999996</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.90949999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.65099999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1.8205</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2.5547499999999999</v>
       </c>
       <c r="H7" s="1">
@@ -16416,25 +22047,25 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.12605</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.1565</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.28949999999999998</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.4345</v>
       </c>
       <c r="H8" s="1">
@@ -16474,89 +22105,89 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>50</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>75</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>25</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>75</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>50</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>75</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>25</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>50</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.19179861474999901</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.46178704500000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.92506998574999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1.1486805707499901</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>1.703117126</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2.7799877049999999</v>
       </c>
       <c r="H13" s="1">
@@ -16585,25 +22216,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5.0840844142500003</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>7.6151095494999996</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>13.991443697499999</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>14.9863134825</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>19.667539544999901</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>30.616992292500001</v>
       </c>
       <c r="H14" s="1">
@@ -16632,25 +22263,25 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1.1052265002499999</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1.8671228545</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2.80149264825</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>5.5232929945000002</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>7.9984574400000001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>14.955995625</v>
       </c>
       <c r="H15" s="1">
@@ -16666,7 +22297,7 @@
         <v>12.154502976749999</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K14:K16" si="6">(E15-B15)/B15*100</f>
+        <f t="shared" ref="K15:K16" si="6">(E15-B15)/B15*100</f>
         <v>399.74308372543032</v>
       </c>
       <c r="L15" s="2">
@@ -16679,25 +22310,25 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5.8925017750000003E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.122076691</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.1923304455</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.41036707649999998</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.57119450199999999</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1.147673035</v>
       </c>
       <c r="H16" s="1">
@@ -16725,18 +22356,58 @@
         <v>496.71937639223114</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16747,8 +22418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646353ED-E387-4441-9F2D-6062223C8CA0}">
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16775,89 +22446,89 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>75</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>25</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>50</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>75</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>25</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>50</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>75</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>25</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>50</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>13.760350000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>17.811199999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>28.545749999999899</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.01125</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.71265</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>3.6005750000000001</v>
       </c>
       <c r="H5" s="1">
@@ -16886,25 +22557,25 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>9.2619000000000007</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>12.863</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>16.2958</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6.8687249999999898</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>8.3711500000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9.5648</v>
       </c>
       <c r="H6" s="1">
@@ -16933,25 +22604,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1.3972500000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.7951999999999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2.3639999999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>4.0824999999999996</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>5.0049999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>5.835</v>
       </c>
       <c r="H7" s="1">
@@ -16980,25 +22651,25 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>9.4950000000000007E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.12959999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.18429999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.32850000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.44224999999999998</v>
       </c>
       <c r="H8" s="1">
@@ -17038,79 +22709,79 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>50</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>75</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>25</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>50</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>75</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>50</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>75</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>25</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>50</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1">
         <f>E13-B13</f>
         <v>0</v>
@@ -17137,25 +22808,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3.2460896942500002</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>5.1774824810000002</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>9.6481058797500001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>5.605113974</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>10.16890712</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>13.42753664</v>
       </c>
       <c r="H14" s="1">
@@ -17184,25 +22855,25 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>3.3720968172500001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>4.9881757034999996</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>7.3097380212500003</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>7.1097737370000003</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>11.227002969999999</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>16.922344840000001</v>
       </c>
       <c r="H15" s="1">
@@ -17231,25 +22902,25 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5.8925017750000003E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.122076691</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.1923304455</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.18973258500000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.4</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.6</v>
       </c>
       <c r="H16" s="1">
